--- a/execl_directory/output_part_2.xlsx
+++ b/execl_directory/output_part_2.xlsx
@@ -446,2156 +446,2156 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7435303014602165513</t>
+          <t>https://www.douyin.com/video/7412953267040308520</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/692dcbcb93ba417ba4eff9d271a44007~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=RBADDcCGq5rSwTewS9CmOsJyY%2BA%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-0813c001/owAQAE4A7N7INAMfAAUwHD3zxUwDBEFfGteBWw~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=f6N0T4GDqwnr5Z80KF7BIsqOVj0%3D</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1299</t>
+          <t>1.3万</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>做管理千万不要和下属比能力#管理 #老板 #领导力 #管理者 #职场</t>
+          <t>七万家茶企干不过一个立顿？ 总有人说我们几千家茶企干不过别人一家 但这是一回事吗！#茉莉花茶 #张一元 #萧大业 #商业 #财经</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7435284391804407092</t>
+          <t>https://www.douyin.com/video/7412613298560044303</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/3e4b6f339f3e47029f5d1c2b8ec45be0~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Phcv3INEYwPRWxO91HrN5FoLkPU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ogIc6GvdgAGVsADBwB5ItNifyQu7AQLYNeCaMe~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=cpno49DIj%2BPIL2fOcqnOZw9xORk%3D</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4820</t>
+          <t>1520</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>为何你懂那么多道理，依旧过不好这一生#商业思维 #企业 #老板 #企业家 #创业</t>
+          <t>命运 太阳每时每刻都是夕阳也都是旭日，当它熄灭走下山去收尽苍凉残照之际，正是他在另一面燃烧着爬上山巅布散烈烈朝晖之时#史铁生#财经#商业#命运#萧大业</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7434889567297113378</t>
+          <t>https://www.douyin.com/video/7412238384338439460</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/9f92c351ef2c46b98eb8c2a245d093c4~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=YHkz%2FCU%2Fq9rq3H5BwMRd2gSb5bo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oIkHyCISNuBOfeK7CgLIA1GLBuA7vonQImeXEx~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=0uxnwptDLeUr6jz%2FENx%2ByXI7NKg%3D</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>2943</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>不会管理让员工寒心的6种行为#管理 #领导力 #影响力 #管理制度 #管理者</t>
+          <t>7:0只是个表象，背后反应了很多东西… #世界杯#国足#足球#商业#萧大业</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7434880292797598986</t>
+          <t>https://www.douyin.com/video/7411764972339875084</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/7e2c32e6260f404296d3afc8186fcc0d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=57Qs%2FOgRNXnZJbrfZDzglejLhPQ%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oYI7BENAeiorPS1bDBEi1tFPQLBCzAffE4B31Q~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=xyKrUXMPR4NcUtjmz3oZsOOd2fs%3D</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2401</t>
+          <t>5437</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>牢记这8句话，你会活的舒心自在#智慧人生 #女性成长 #个人成长 #人生感悟 #生活</t>
+          <t>真的是脱了底裤，脸都不要了…#国足#足球#世界杯#商业#萧大业</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7434746219743726885</t>
+          <t>https://www.douyin.com/video/7411464353565691187</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/6536bf34b71b42729ef33f7e437e8ed5~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ujHT8XuZsvB54Vtm47moEXrb8JY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/oknB5EiDAMAEde5FfAN7BAAwI019ytQ6ZSRGfE~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Lj7N%2FgPILAqFG82R%2BtAMVDpuqxw%3D</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>2034</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>聪明的女人，请避开这6个让你走下坡路的陷阱#女性成长表达 #女性成长 #提升口才 #个人成长 #认知</t>
+          <t>数风流人物，还看外滩 AI时代到底有什么新的机会？到底怎么做才能在新时代找到财富？外滩大会很多有价值的讨论和思考 #2024外滩大会 #AI #科技改变生活</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7434539514099420466</t>
+          <t>https://www.douyin.com/video/7410228741554654505</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/efac017fabce4e57a210ceed57a2e0ad~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=2FpTFp4IZpJgwwiIJGDjqb7uhzY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/564098ea483347dd922014f225ff54e1~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=LPZCKoE2rsrHSiRDKoz81M3cWSA%3D</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.2万</t>
+          <t>533</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>你都不懂00后，怎么赚00后的钱？#00后 #商业思维 #创业 #赚钱 #爹味十足</t>
+          <t>你为什么讨厌开会 我们讨厌的不是开会 是低效率的协作和沟通 #华为IdeaHub #华为IdeaHub轻松数智化沟通 #科技</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7434447238186749224</t>
+          <t>https://www.douyin.com/video/7409996749856574774</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/bb6ca0a0d4ac48c2817aa0c2729f35cd~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=EFRLdU7fd%2BzDhXIHa8O5z%2BjzcpU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQ3BCe9RGBzNLf7B1VImzFINqCEQf4cAzO7XBA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=XQO4SReln3T11LiGvlUL5f9%2BRos%3D</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9405</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>世界是个草台班子，大胆行动人生开挂！#胆子大 #草台班子 #人生开挂 #认知 #自信</t>
+          <t>范蠡足智多谋，功成全身而退。财商极高，千金散尽还复来描写的就是他，被人们尊称为文财神，但他失去了儿子… #范蠡#西施#孩子#教育#萧大业</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7434150343417580840</t>
+          <t>https://www.douyin.com/video/7409610040887217420</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/970c003c235e4295bc5aa69b6f85ad28~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Q3gRGOs2JxM7OzHN6zbTjPV6kb8%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oIUqgaBBCIzZibgxVCfBe7GJR1SxOhAVAiAHyE~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=WmcUCWfKE1DggHT07pMnj8DWaeo%3D</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1268</t>
+          <t>363</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>实体门店如何玩转拓客引流？#实体 #拓客引流 #新媒体 #商业思维 #创业</t>
+          <t>济南人是“带有阳光味道的老棉袄” #济南#山东#大明湖#萧大业#鲁菜</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7434096602807061797</t>
+          <t>https://www.douyin.com/video/7409225036801772840</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/92425731eccf4406ab78fba826ca4e5d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Up70lA1nR7M2HwB%2B0m0qeLdiiVM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/oUDEDI2GgArQAXrh9FfHtmDCPA0NPEAevAzzAS~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=qpdwB5K2b5RfjdU4%2F%2Flf6Uvfz5M%3D</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2207</t>
+          <t>6025</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>想让孩子成器，这招可以搞定！#家庭教育 #竞争机制 #张琦 #孩子培养 #女性智慧</t>
+          <t>刀郎为什么那么火爆？ 刀郎为何如此火爆？因为老百姓希望看到这样的平民英雄去挑战，去打败已经形成的各种各样的门阀，打败他们对资源的垄断，他们看到他的那一刻他们都已化身成了刀郎。#刀郎 #线上演唱会 #音乐 #草根#萧大业</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7434006933637483816</t>
+          <t>https://www.douyin.com/video/7408869553377234191</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/b3d0541b2b8e46ddb4bf523f9c3c825a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=jv0hdn8awDfYbNnLSiyCO9pMFeA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/ocDBYAiAiDdAI5igz26AElMfovxeCOAaREARmc~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=qFiPTaRIOX0Izv6jqeT1ZQB1DlA%3D</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>1063</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>管理需记住的7个带团队口诀！#管理 #带团队 #领导力 #高管 #职场</t>
+          <t>四渡赤水（三） 很神奇，非常值得了解 #四渡赤水#萧大业#历史#故事</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7433735512201923850</t>
+          <t>https://www.douyin.com/video/7408867447702375691</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/4cf3787459624951b0041c56254e42d4~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=kXinkDaVKM79YhZbOR2uH0eBAio%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/82bd9339ce2d41b69532a8446bfe6846~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=nl896Yaxfl%2BVUWUNscUrJHhhyFE%3D</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.0万</t>
+          <t>586</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>但凡女人图点啥，都不会混的太差#价值 #认知 #商业思维 #恋爱脑 #财富思维</t>
+          <t>华为IdeaHub不止是屏幕，是你我共创的大业 @萧大业  #华为   #IdeaHub #鸿蒙 #会议平板 #华为欧洲小镇</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7433437870548897033</t>
+          <t>https://www.douyin.com/video/7408510278100405516</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/0343a3ba194543b88739868952acf7aa~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=p59l%2FFM%2BmVgF8oINIenDPhUp%2F4Y%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/osiRsBhEsqiCAkkfAg0QiCzNUHesaAcDiIwBC8~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=ujZt3EyksahHkCscARZSZ2KV2qY%3D</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>2716</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024年底了，短视频行业还能卷得动吗？#短视频 #运营 #IP #直播 #商业</t>
+          <t>很神奇，非常值得了解 #四渡赤水#萧大业#历史#故事</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7433411173988568320</t>
+          <t>https://www.douyin.com/video/7408117635226848550</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/479a80f7f1164d6b8b84e48969444545~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=7YTyC1Q1tZdr1X5hVcdq3XUzDkw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o4BOPCLWIBWZkEiv8fe6AJ1AkXZJ3gVdCQA1iz~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=wp2aIXe3QScutd%2BElrfnfghhhr8%3D</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5870</t>
+          <t>1776</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>老板只要钱给够，管理都叫严肃的爱#打工人 #老板 #认知 #工资 #管理</t>
+          <t>很神奇，非常值得你了解 #四渡赤水#萧大业#历史#故事</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7433396560165211442</t>
+          <t>https://www.douyin.com/video/7407763249090891058</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/be61ac9bf45f4fb7b697a3abfaf6be15~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=MyUpeJjJlED%2F1YKKZcrzxPlAA08%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o4XN7NJgmvfIBqxjBAIGfiGejEPA2LEGBVECa1~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=%2BAmJ%2BES5WnEsaj3fp6%2ByNRzygqU%3D</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.5万</t>
+          <t>815</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>爸爸陪伴越多，孩子越独立#认知 #家庭教育 #独立 #女性成长 #教育</t>
+          <t>我们不需要盲目地与他人攀比，但一定要比昨天的自己更加优秀#奥运会#乒乓球#孙颖莎#陈梦#萧大业</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7433072768809225512</t>
+          <t>https://www.douyin.com/video/7407405437642968346</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/51024e03ec164826892a71e63d8fcbaa~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=bCvyWHZ8wcXjkYiI8TcMmb%2Bvyd0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/owMfYirA9IKAAC7f2TEBu6Dm1lyFEAjGBgONZz~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=n0HsspYW2Nm5UQLC1zpddpSFHkA%3D</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>2244</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>只会落地的老板，一定做不大#老板 #管理 #领导力 #管理能力 #带团队</t>
+          <t>在世俗的世界里，你、我都有可能被压在“五指山”下。但在精神的世界里，我们都可以是自己的悟空#黑神话#悟空#西游记#游戏#萧大业</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7433053771636165898</t>
+          <t>https://www.douyin.com/video/7407069672849296690</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/0ff17a0b334c40fe9db8a1dafdcb8b69~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=HzzPY8WhwOXkwcEu3KBFid50ohk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o01FsPyLv7QAiLPKtEgCZAqPQtnIIWUBiMrNs~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=DRJ3tg6ovFVZ0mPkpeljkBDSAlI%3D</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>7284</t>
+          <t>2205</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>到底该不该翻看伴侣的手机#认知 #思维 #看手机 #女性智慧 #女性成长</t>
+          <t>科技进步了，生产力被大大释放，生产效率大大提升，但为什么我们却越来越忙了？欢迎讨论@微信时刻 #世界#过劳#生产力#萧大业#社会</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7432933960373620018</t>
+          <t>https://www.douyin.com/video/7405910915519958299</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/63631b78a34645a09c1ca5d0b9ca1be3~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=m40sXhEifVyszG1wWk7dpQ1j7K0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ocCXxYb9mIaTAKqAEmxgyQD8FafCABYTGQ2Ozf~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=lbjG4vWWxu7jCuM5mmSY1kHLBtg%3D</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>8262</t>
+          <t>923</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>真正的人生，从50岁开始#50岁 #人生 #智慧 #认知 #思维</t>
+          <t>为什么全红婵很自律？ 自律是权衡利弊之后，选择主动接受痛苦，获得更多的自由，从而享受更高级的舒服。虽然，这可能会遭遇误解甚至使自己痛苦。#奥运会#全红婵#陈若琳#自律#萧大业</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7432659906508934435</t>
+          <t>https://www.douyin.com/video/7405533127621348634</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/321bf6e5682a4801932783c625db4d4c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=UIHl26i5vhYOKZzjbTHKBCO%2F1%2FI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/o4DWpNRFQfW3AXqM4AEQAABeHPAiE4MeBgk87N~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=5ZvUXshLIokAthdUah5o74x%2Bl%2FQ%3D</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>8378</t>
+          <t>2790</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>一个女人越混越差的原因都是因为这6个“不”#表达 #口才 #女性成长 #女性成长表达 #高情商表达</t>
+          <t>黑神话悟空 一群怀揣梦想的追梦人，不仅实现了自己的梦想，还站着把钱赚了。#黑神话悟空#国产游戏#3A大作#萧大业</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7432658387084594442</t>
+          <t>https://www.douyin.com/video/7404796102534319411</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/ee2384ed4baf4c4da4fc95bcf6c582ff~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=hJdpS3iYLVwmg6d4KPbeuuwOuDE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oEt9ESFp8BC4leMDACDAI4wr9xmgHBLANxEkfy~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=P57txKREHJc7Fzb3nYiFb0MO7OY%3D</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5287</t>
+          <t>2740</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>婚姻是人生的选项，但不是必选项，离婚也不可耻#商业思维 #婚姻 #离婚 #认知 #智慧人生</t>
+          <t>全红婵的人生轨迹和我这样的普通人完全不一样，自然也不能用普通人的思维看她，看完访谈感觉她比想象中成熟的多#奥运会#跳水#全红婵#陈芋汐#萧大业</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7432267804109327625</t>
+          <t>https://www.douyin.com/video/7404397245371551014</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/cacad462d53b4859a22c6bc522d42c26~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=pSufcCMbhstv59mJbORZeZz9orU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oYIkibZtBoAzz5BxsBQ0PBiIAI2PxDhEXGnxg~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=pxM8%2BJ0EBewVAWTSQqU7jG6JrGk%3D</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>1773</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>会表达更幸福，学会情商突飞猛进#口才 #表达 #情商 #幸福 #沟通</t>
+          <t>死亡不是终点，遗忘才是… #中元节#传统#人生#死亡#萧大业</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7432265396805274895</t>
+          <t>https://www.douyin.com/video/7404069121496747301</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/f5030ee78c194fd09cc1f6611ae5d399~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=shY1FDAMYt0e547SdDBzA6lF65I%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oYBaAA08ICBoOEImrwFfABgtri1il1EP9cDfAh~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=4iGBRpSmf%2FNrk819EJ62FIcD8O0%3D</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>9065</t>
+          <t>1788</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>到底什么是人生幸福的真谛？#人生 #幸福 #感悟 #智慧 #认知</t>
+          <t>永远不要低估一颗冠军的心 #奥运会#乒乓球#马龙#林高远#萧大业</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7431863444770491663</t>
+          <t>https://www.douyin.com/video/7403595463288442162</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/47d1cfeced1541ed9fbbc3fd17a6202b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=N4WmAJSbBhk1ccJscsKZBUHGo8I%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o442uDwoa9Cims3eEpFEAVDfDfA24BOQIXf9Ib~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=g7HI%2BWeiAdy7f713vNHfMgE1FZ0%3D</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1699</t>
+          <t>2997</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>弱者才需要逞强，强者是可以示弱的#冷暴力 #认知 #强者思维 #张琦 #人际交往</t>
+          <t>其实任何一个人，不管是离婚，结婚还是单身，目的都是为了幸福，婚姻需要自由…#婚姻#户口本#结婚#离婚#萧大业</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7431826570563603763</t>
+          <t>https://www.douyin.com/video/7402957781247986994</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/40adc832bda54975ba5d7580090f691c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=WZdGg7VaHiQnVSWRoH9Z5tisuhw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oIid7DeAEAAfuIy8Czqg6moECBitVlXBknIIB1~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=REhdmg4BLBlMhGoB9TYwIBAZozM%3D</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>7740</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>我佩服的不是付航，而是付航的父母#付航 #父母 #家庭教育 #孩子教育 #认知</t>
+          <t>我们需要理性的光芒照进被迷雾笼罩的舆论场#农夫山泉#钟睒睒#萧大业</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7431775275358162186</t>
+          <t>https://www.douyin.com/video/7402572627849661733</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/d5af3c9748804479a1a0f6d52678d62c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=lDIic8iL%2BE861Rm%2FpM3O98ZLcsU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ooUB2fm27AB7DeBQCB6EAgCEcBdFI97UNjfTPN~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=LD0sX2vIEvznRDqbtkTEsqgy5Cg%3D</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>1217</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>掌握表达3要素，成为超级表达者#表达 #逻辑 #情感 #思想 #提升口才</t>
+          <t>哪家大学是我国最牛的大学？ 所谓大学者，非谓有大楼之谓也，有大师之谓也。#西南联大#民国大师#陈寅恪#梅贻琦#萧大业</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7431589858151271706</t>
+          <t>https://www.douyin.com/video/7402217055472209161</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/67e278cdc9ef4be89986aa4fb6b2d3f0~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=aFDpmPyWeqxbhv58pTSwtyM%2FMFY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oYS7DEAQEZNB4WBTIC5D3EF8eci59BffkEAuT5~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=qlkwu7jKv6zcGZEPNBrLEOHUynk%3D</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>1462</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>你的谈吐才是你最硬的社交货币#表达 #口才 #谈吐 #文采 #发言</t>
+          <t>500万人口10面金牌 #奥运会#新西兰#巴黎#萧大业#体育</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7431565311633083657</t>
+          <t>https://www.douyin.com/video/7401872683106946314</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/8d4418e73d05472c8b3028d54996d5c5~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Ith6BtqJ5MoH4CbhNBD0XhCgFo8%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o8KQCfezDAqmFS1Ap4EvLnEAuBCIWswg1Q9AuA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=RPk4yaNBIDV3jZqPyqMXMqouMaU%3D</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4668</t>
+          <t>1.4万</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>到底怎样的人生，才算成功和圆满#人生 #成功 #认知 #智慧 #女性智慧</t>
+          <t>他是史上最伟大的乒乓球运动员，是不折不扣的六边形战士，马龙只有一个，致敬马龙#奥运会#乒乓球#马龙#龙队#萧大业</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7431535859956075791</t>
+          <t>https://www.douyin.com/video/7401363752878198067</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/5279ec50edbc45b194a20bc4b43b7d3b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=4qL0ZmT7QOHz5W4nHH1Sm6tNwLY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/owAFCDkaIIfCn2UQLeteEL22VGf5j7ITNdvENA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=w62jOpLdSx%2FKr5W5ZJkOXkGz470%3D</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>5.3万</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>高认知的人都这样选另一半#认知 #婚姻 #个人成长 #思维 #女性智慧</t>
+          <t>32岁的世界冠军杨柳0:5败给了一位性别有争议的选手，世锦赛被禁赛的选手为何又可以参加奥运会呢？ #奥运会#拳击#杨柳#性别#萧大业</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7431201195043212553</t>
+          <t>https://www.douyin.com/video/7401088831996300553</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/124424272b964e05a814f2dd5e9bd55b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Pfubl%2FflkZalD6PBRPJs1JphKhU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQBiaAoAi1gwZ7GEz6vxbyBAKIPIXr68TQcxo~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=7D4v29gunwf6BtunM5OwkSgyFcc%3D</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>4775</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>怎么克服发言紧张，用我的方法就够了！#发言 #紧张 #演讲 #上台发言 #表达</t>
+          <t>郑钦文有望成为全球最赚钱的女运动员 #奥运会#郑钦文#潘展乐#游泳#萧大业</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7431151179830267176</t>
+          <t>https://www.douyin.com/video/7400767322937363762</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/42a265a16f974ee58a94aeaca3e9ce32~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=DXFaq1uWgyTJSWEHKI%2B0GzK1ECo%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/o4AABrO0E1mIfBFVnSDM1ERHCtz9E5Fg9IfAME~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=zVy6AqXtWN%2BeT45oi6J03gjHb%2F8%3D</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>9309</t>
+          <t>1.9万</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>你的竞争力取决于你选择的对手#竞争对手 #董宇辉 #拼多多 #商业思维 #创业</t>
+          <t>采访是个技术活，说实话不是谁都能上的，你走不进对方的心里，根本不可能有什么精彩的访谈 #奥运会#游泳#潘展乐#萧大业#00后</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7431049611613064498</t>
+          <t>https://www.douyin.com/video/7400649337077828915</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/89df75e7da074c86a187c1882240c6b8~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=7J11rLLCHSJKWby8zHsWhzwvpuo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oofuML2GjznqEgiqYaEiJA2BB1UsWIe0E2CABA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=fdOWlHDaxV7SM7W2bP4kDlR3c0I%3D</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>6059</t>
+          <t>1878</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>川渝为何能成为中国战略腹地#川渝 #成都 #经济 #商业思维 #机会</t>
+          <t>没有宣传，没有炒作，没有热搜，但默默努力的曲棍球姑娘们打进了奥运决赛，她们一直在拼命为国争光，让我们一起为她们加油吧，她们需要我们#奥运会#曲棍球#萧大业#女性#团队</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7430814507733208355</t>
+          <t>https://www.douyin.com/video/7400353786549587209</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/81f278c85bbb4440bc128542daf9bbdc~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=xQOj1WPi8w9ASRuNGWDvKcD9Ws4%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/okOAb2FsDIDH8vDAXsfgfnESmzQo9mrAC0p1VB~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=6%2FqTxfAt7%2F2tiTZuiHTfZy5Qyg4%3D</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>8121</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>怎么样提升口才,成为超级表达者?#提升口才 #表达 #说话 #老板 #老板表达</t>
+          <t>这个双杠上的神清场式遥遥领先蝉联奥运冠军。外媒解说把他这段比赛称为是体操有史以来最伟大最精彩的比赛 #奥运会#体操#邹敬园#双杠#萧大业</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7430790456646077730</t>
+          <t>https://www.douyin.com/video/7408117635226848550</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/50944db9024b4254bf79e1a99a6c65d4~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=uMpwtJzkqLgDc68HwmULtH6gmd0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o4BOPCLWIBWZkEiv8fe6AJ1AkXZJ3gVdCQA1iz~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=wp2aIXe3QScutd%2BElrfnfghhhr8%3D</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1776</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>人生最好的活法是学会这三件事#人生 #认知 #思维 #智慧 #个人成长</t>
+          <t>很神奇，非常值得你了解 #四渡赤水#萧大业#历史#故事</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7430740232154205466</t>
+          <t>https://www.douyin.com/video/7399921334832106802</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/0ac6e57f16a0462dae5c48755706e07c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=73vTZmPyGgCDjIoNPk3%2BkDZl%2B%2BQ%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oEeNza7tBQGYZjeItmLZtIbpBeIGQACk5iDEoA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=A8oytw4mUty9aaIQHVmzQTEIMAw%3D</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3143</t>
+          <t>1585</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>成年人的尊严和底气都是钱给的#财富思维 #商业思维 #张琦 #成年人 #赚钱</t>
+          <t>我喜欢新一代的运动员的坦荡，率真，果敢，有话直说。他们不会再被人随便定义，更不会等别人施舍善意，他们用成绩和态度消除偏见 #奥运会#游泳#潘展乐#郑钦文#萧大业</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7430461754414501170</t>
+          <t>https://www.douyin.com/video/7399504630952004901</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/6b9c352c79f44001bb5850b98a7f32e3~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=eF1EPHElebtOWtg34UI21galzfI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQADIkEgCgAipiCUmmex2Wf2hiBCABqIPCkzQw~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=4mHyxhpZq223Aw3IA5k7NRiouU8%3D</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>7170</t>
+          <t>5.1万</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>婚姻是爱情的坟墓，但没有婚姻你的恋爱死无葬身之地#婚姻 #爱情 #认知 #思维 #女性成长</t>
+          <t>这是一块超级牛的金牌，一来它打破了米国队长达40年的垄断；二来这个地球上终于有人100米游进了46秒，挑战了人类极限。潘展乐，独霸天下，振翅高飞吧。#奥运会#游泳#潘展乐#萧大业#体育</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7430452560982445363</t>
+          <t>https://www.douyin.com/video/7399275879743900980</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/aade05ba1a014456965ed9ecd2ab3058~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ZGL6g0RAXZx7c7wtLXc%2B3%2FHq188%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/54ece7439a124a05bb79ad63e730d3e1~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=fAS1ZfTro6cHxr97yMNI0%2FfQE4c%3D</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>6.4万</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>普通人如何抓住新媒体时代工具？#新媒体 #生意 #商业思维 #创业 #直播</t>
+          <t>出海不是为了逃避什么 出海不是为了逃避，来看看真正的全球化企业是怎么做的吧 #TCL全球化25周年 #出海 #企业家 #ESG</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7430092912878193971</t>
+          <t>https://www.douyin.com/video/7399127252648070427</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/4c30255e72d54dbeb9e55965dd013b57~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=mVklv1cXxNWGj659h1k%2BhHcy8nE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oA3dnpqEjx96CQMI9BFmAetDg2CHvAsxfvrAVw~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=oN20Xi615R1HeykM8I3YK4pDQQo%3D</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>2.9万</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>你要小心那些说话让你很舒服的人#沟通 #说话 #表达 #提升口才 #高情商</t>
+          <t>这就是郑钦文，打球机智勇猛，说话聪明得体，看来每个能站在山尖的人都是智商，情商，机会，努力，天赋缺一不可，她只有21岁，前途无量 #奥运会#郑钦文#网球#萧大业#李娜</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7430066889247837475</t>
+          <t>https://www.douyin.com/video/7398503576269622578</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/eef15ba422004a0fac69500d2a52369b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=s54%2Fnr3GwdZ4Jf%2BDHN8BspByYeY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o0MReAfgCrIByw9yAbgpEzFElViJFms9DrAMBk~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=jQ6RVuHoAimdItI6NwQnK5DIcFc%3D</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.2万</t>
+          <t>3321</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>善良的女人，请学会好好爱自己#女性 #女性成长表达 #女性成长 #爱自己</t>
+          <t>创造历史的郑钦文 郑钦文前二场都鏖战了3小时精疲力竭，她说：我的身体已经达到了极限，但如果现在你让我为祖国再打三个小时，我仍会全力以赴。#奥运#郑钦文#网球#巴黎#萧大业</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7429692473607310619</t>
+          <t>https://www.douyin.com/video/7397945934992117029</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/80d1621c9611433888214bad71dc0d8a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=IiOhsMNq9p6HLGkjIck%2BzbVN8T4%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQ2xIaQiZvsPSB05aQILqAIHqwqBEgr5Ayith~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=L54UvdNs%2BDgZB4MBlwfTXdcYoZk%3D</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3.4万</t>
+          <t>3491</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>为什么老外普遍比我们自信？#成功 #自信 #女性成长 #认知 #商业思维</t>
+          <t>有人说他的这次夺冠可以媲美当年雅典奥运会的刘翔，我说如果你把游泳和田径二个大项的地位看的一样的话，那他的成就已经超过了刘翔，可以媲美北京奥运会上的博尔特#游泳#奥运会#潘展乐#巴黎#萧大业</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7429658042507037961</t>
+          <t>https://www.douyin.com/video/7397402754332757274</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/47a93e3d67d24520ae105e5144128eb7~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=4up5NG1mP1y8mqnhuNPjdgo5sAY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/owgPAaAQsoBIPIgGSACohiq1FAqq2iEZAjmAn~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=JtKcbLd76q1UKLdcuXeOZVlh0nY%3D</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1286</t>
+          <t>3158</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>会说话有趣的人,简直万里挑一#会说话 #幽默 #表达 #提升口才 #女性成长表达</t>
+          <t>盛李豪展现出不同于传统认知的奥运冠军形象，他以轻松、松弛的心态对待比赛，将气步枪视为个人的热爱而非单纯的压力来源… #奥运#射击#盛李豪#干饭哥#萧大业</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7429617898823486771</t>
+          <t>https://www.douyin.com/video/7397280583568674099</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/66ed808f04c9491380faac5e5d23ed94~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=3vzSZ%2B0y9%2FqTtOYz6zs8JnbAopg%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oYjEAWfBCExBebzA7aaQOV6DoB4AxiWuiBOjIg~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Vs%2FgbGajsxzs0eIRStEq8%2BKlqiQ%3D</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5943</t>
+          <t>1483</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>心无城府难处世，胸怀智慧方从容#女性智慧 #女性成长 #女性成长表达 #智慧人生 #认知</t>
+          <t>银牌也是牌 文化自信首先是包容失败，其实遗憾谁都不想看到，失误了下次再好好发挥就好，更何况不是只有金牌才值得歌颂！</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7429361092415048986</t>
+          <t>https://www.douyin.com/video/7397039972559195418</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/affacfa8527e42c89c123a1558eaa8b9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=wzJj71G%2FBnNRTn7oxlm46%2FJkfjc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oAfVANfDCIkO9DmAVI0adpU5PBVAwEB7FFNEQg~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=tniqPjraX2qlgXwRMh13TZStSPQ%3D</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>不善言辞的你，请相信自己可以完美蜕变！#说话 #表达 #提升口才 #个人提升 #女性成长表达</t>
+          <t>谁说体育和学业不能兼顾，其实体育和学业完全能够兼顾甚至能够相辅相成#巴黎奥运#江旻憓#奥运冠军#香港#萧大业</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7429292218168397056</t>
+          <t>https://www.douyin.com/video/7396657222610079013</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/4a1e1167f86f41d5ae66d7126ccb7c2b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=F1xjoiXRkTI1KJ%2FGBD0wUeN3jOY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oYHmxfATeAEX1gaYBG7NCJCfNIBELB2gmGtIbU~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=paDSm8kPHRZtJ%2FzTx7W0YrQeQvM%3D</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.3万</t>
+          <t>1767</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>谈容易的恋爱，做难做的事业#认知 #张琦 #事业 #商业 #个人成长</t>
+          <t>她如夜鹰破晓，疾病黯淡中唱出了生命辉煌#奥运#巴黎#席琳迪翁#法国#萧大业</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7429247287009889587</t>
+          <t>https://www.douyin.com/video/7396186264912923931</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/83919bda4eda47ad9c0ccbbafad66f34~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=SLOLnKJsrCirt4qUMjfAgHHSnmA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oYYBpBNIkGoDPCQiAeEERfESFBA7mBSfvdvt2E~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Kl0nuslPpBJVkZ6H8LSiLFN4lfg%3D</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>1.6万</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>付航夺冠为何触动人心？#付航 #悦己经济 #商业思维 #喜剧 #认知</t>
+          <t>自信是一种发自内心的自我认同感，一种不需要借助外界夸奖与奉承来证明自己的信心，一种内心的强大与笃定#奥运会#巴黎#开幕式#法国#萧大业</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7428971803369852212</t>
+          <t>https://www.douyin.com/video/7395865704504855858</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/4a93a045d51a4e29a348c8d0afbdcc81~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=0XBEIVxD0yP6bJat%2Bp4K8iyGmJ8%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/okEeAyXR7LFA7BsAINIGeWeIQAAMAldVBEGh87~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=uY2K2pQllTNmttY5Eu1amg2TAGI%3D</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>2120</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>千万不要小看一个好好说话的人#好好说话 #老板口才 #提升口才 #上台发言 #表达</t>
+          <t>谁说亚洲人不适合踢足球 日本奥运男足首战5球打花南美洲冠军巴拉圭，谁说黄种人不适合踢足球#奥运会#足球#日本#体育#萧大业</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7428940908764138792</t>
+          <t>https://www.douyin.com/video/7395546711197748517</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/10f7f48b01b947268c952a57fdd39798~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=znro7LHWdwVlfO5X8bDPLYqdSzY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ogyP1LiIEAgzn8UfnQiCiiCJ8pCJIAA5BBSeB6~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=w0wfPw%2BheRpnYk3IjQ4xkmRs%2BWY%3D</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>8057</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>叶柯再爆新梗，这事你们怎么看#黄晓明 #新媒体 #再见爱人 #传播 #营销思维</t>
+          <t>一个个当了父亲的中年男子都在为了和这个世界抗争，为了自己的妻儿老小努力奔跑着。 #草民#蔡崇达#父亲#读书#萧大业</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7428879022022577459</t>
+          <t>https://www.douyin.com/video/7395178691736784155</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/2bc661e91fbd47bdb707f4c9585ecc25~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Afzmx6xVNMqzqGEIBFcyTebL184%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o8HP9ZgSREa0eOxmAHCMI8EgfNAGPBAClDx9oF~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=%2BEaOWZVwX33PdVNuBe%2B767hrbHk%3D</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>6538</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>不会领导管理别慌，用我的方法就对了#领导力 #管理者 #管理 #刘邦 #带团队</t>
+          <t>她才是真正的贵族，暴发户们无论怎样富可敌国也抵不过她一根小手指…#何泽慧#钱三强#两弹一星#原子弹#萧大业</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7428619869224062248</t>
+          <t>https://www.douyin.com/video/7394821430690549027</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/1493f878020d4c4dbebc58ef7cbdd3b5~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=cR8crjNN5QpnVxgBL17ouUI4PQ4%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/38d45e0375a94bbf8b04e5a18d795cf2~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=49W9wkoM5N1EL22ObQxy2ma6NBU%3D</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3673</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>成都有什么魅力能吸引年轻人？#成都 #川渝 #城市 #商业思维 #年轻人</t>
+          <t>助农的正确方式 助农不是喊口号，需要长期投入，持之以恒#农夫山泉 #经济半小时</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7428583092966706458</t>
+          <t>https://www.douyin.com/video/7394762491374456073</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/615e8f192faf493dbb395581066970d5~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Obinlp3LDOk9E73Ju%2BkEqq4SRMc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/osepeZTRXAfgOZgfAhuoe5gYb4O1oVegIPQ59A~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=7ujTYTVBgdQ0YtzaIl3ikjhqcSQ%3D</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>1348</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>如何消除教育内卷？林教授的话值得深思！#教育 #内卷 #林小英 #家庭教育 #认知</t>
+          <t>了解了懂王的几把刷子才能看懂他夸张的言论和行径。#懂王#老登#萧大业 #管理</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7428176578133249331</t>
+          <t>https://www.douyin.com/video/7394450405180067110</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/a7c8e61668f74111b26f1ba2ec19d6db~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=BbGB2HTvbYIuDifIOQWDyzkEQlg%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oMCpaDEGNCuqAfaLIRZLOAILBBC8ePaAf7Qv8r~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=J6Dhpc6GpKFeFvUhFIQxPsHTLmg%3D</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>张琦背个文案就能背成ip？#张琦 #个人ip #商业思维 #创业 #ip孵化</t>
+          <t>你可以躲在角落里沉默，但是不要诋毁和嘲笑比你勇敢的人，因为他们争取到的光明也许会照耀到你#人大#女博士#萧大业#性骚扰#叫兽</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7428127998630563072</t>
+          <t>https://www.douyin.com/video/7392150381754617125</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/d6ed6aec35494b1a88f52495fad75012~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=%2FHWEmUttivzWftLurbQTy8GkmjU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o8EWIAAK9MRlAZDmYFiDfeUkSFhABE6gCkjaBW~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=G2M%2F4Gb%2B3B5tvTwOeWdOZOwalQc%3D</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>5104</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>你敢不敢用刷视频的时间，去做这5件事？#口才 #表达 #演讲 #发言 #张琦</t>
+          <t>特斯拉 特斯拉零部件国产化达到95%，超过了我们本土的车企，员工99.9%都是我们同胞…#特斯拉#电动汽车#新能源#马斯克#萧大业</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7427854197388791049</t>
+          <t>https://www.douyin.com/video/7391382265709825331</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/6236d411c4ee45ffa6d6b50a289c011c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=709eO6CNtFBGMlFVJC42U4zmgVk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oYFMfADkRdyAwF97mNq8aCCAgEdTBzvIK793Ef~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=GhAztcqtoLUSLsT6lqbmQtZsW70%3D</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1933</t>
+          <t>2422</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>无人驾驶的时代，真的不会太远了#特斯拉 #马斯克 #无人驾驶 #商业思维 #科技</t>
+          <t>你说，今晚欧洲杯决赛西班牙和英格兰到底谁会赢？你说南门索斯盖特到底有没有本事？ #欧洲杯#足球#英格兰#索斯盖特#萧大业</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7427810879984520498</t>
+          <t>https://www.douyin.com/video/7391104642949696794</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/7b979bfe42cc4b52bf6d758701738feb~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=uiF35U2d2foBiFDaLV2VjcpoQ74%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/osC09ADekEnfqAWGkT40CsLEA4hFIAmQAQgAo8~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=fhCoUOWCh5ainPHh5lSFiqH8mzI%3D</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.6万</t>
+          <t>752</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>富二代清醒发言，何猷君快乐不重要#何猷君 #个人成长 #认知 #智慧 #富二代</t>
+          <t>西班牙人为什么对这项极度血腥残忍的运动情有独钟，趋之若鹜呢？#欧洲杯#西班牙#足球#斗牛#萧大业</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7427513857167412506</t>
+          <t>https://www.douyin.com/video/7390674033311747337</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/14b7b30a7d624e7491751f98d91a55b4~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=eJenE0AUfztF5e9So0iA8eHB4Bo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oc9WECAFgIQw02CAofDQjQQesM5eDfCEIcuaLh~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=7EhIvD%2B9oYYGH%2BbuSAZOezNLPwU%3D</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2.0万</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>为什么周转率比毛利率更重要#商业思维 #创业 #周转率 #毛利率 #商业</t>
+          <t>任何一次新技术出现带来的生产力革命都会带来社会财富的重新分配，如果分配不好，如果弱势群体分的比原来更少尤其是少的多的时候，他们必然会反对。 #萝卜快跑#出租车#武汉#无人驾驶#萧大业</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7427486363764772146</t>
+          <t>https://www.douyin.com/video/7390357701445881138</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/78a0460ba7b44d27a0051b703308d1b0~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=h2eKA2QVaZHoOibD6l4defzJCVk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/og0fzAI9SBBng2A9EQGAB7uPcCizeRti4YT3P7~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=tj5y7O%2B8zOtKk0IBuir4tTV6Wjg%3D</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.5万</t>
+          <t>1170</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>对你的妻子好点，她真的很不容易#认知 #三胎 #婚姻 #思维 #女性成长</t>
+          <t>七条锦鲤的故事#欧洲杯#足球#英格兰#索斯盖特#萧大业</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7427087503871511823</t>
+          <t>https://www.douyin.com/video/7389995294890495241</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/6f7a8b23e76046dcbd76182808c0a504~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=2cFYyChfGBdsmlHIXe8RTkn%2BaaM%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/o4AO0igRfAEVzSSFBBezKZBTiiACiAZoD0PIk0~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=VWW7olZ3wQKo%2FTG7uFk1VVDv%2BpY%3D</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>2807</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>员工执行力差，是你的管理出了问题#管理 #执行力 #带团队 #领导力 #管理者</t>
+          <t>法国在很多方面都很强大，不看不知道，一看吓一跳 #欧洲杯#法国#巴黎#足球#萧大业</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7426743372792073512</t>
+          <t>https://www.douyin.com/video/7389606347047750963</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/619294623aa84524b6a79784ad6f2325~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=fQ4CIt4%2B9kWQcnSHAzUgdIRa%2FuI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/okBKN9fPALzpziAAgo9CAtCKiRIAJEvgepCAua~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=f0LPNVKoXd1uGUhvww9JSFJZV4s%3D</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>2326</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>讲话没有逻辑，那是你不懂结构！#口才 #表达 #逻辑 #发言 #嘴笨</t>
+          <t>我们每个人的一生到底什么最重要？值得所有想活的明白的人认真思考，也许看完视频你就有了答案#人生 #成长 #管理 #萧大业 #生活</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7426698575964343592</t>
+          <t>https://www.douyin.com/video/7389259469030460709</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/f63edb8c4d60410d9c517ccffc00715b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=PhttJ7hk59RKqt5sQUYCUsRy26Y%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/oE8k2NAEfAEIAiDfBLsXiSQA5F7f9FyATEEIBM~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=nbhwnUgHcTCw4dQCVadsuouQWTY%3D</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.9万</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>00后不内耗不内卷，简直人间清醒#00后 #人间清醒 #内耗 #张琦 #恋爱</t>
+          <t>从来就没有救世主，救赎自己最牢靠的还是自己 #欧洲杯#足球#英格兰#萨卡#萧大业</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7426665948632911138</t>
+          <t>https://www.douyin.com/video/7388874158282722569</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/58e226b8c18c4a94bda3363695b9abfc~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=DXAGaNG7iB4um2RPf9kI849fPgU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/og7AAqfDCIya9vmAPGyokikoVBeAXE2PFD0XQg~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=RnwH5BIHkZDWh7jD1CrXvQUS5T4%3D</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1144</t>
+          <t>3405</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>年轻人现在到底要不要创业？#创业 #认知 #张琦 #年轻人 #商业思维</t>
+          <t>他的梦想不为岁月的风霜所侵蚀，不为世间的纷扰所动摇，如同星辰，指引他穿越黑暗 #欧洲杯#荷兰#足球#韦格霍斯特#萧大业</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7426318303561370932</t>
+          <t>https://www.douyin.com/video/7388496213651229962</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/d8788a0367c643178d6217a6db10963a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ee5PNkmRAz9qiqsGM1a7wSg2fLA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ocgJ7mo6NIEfB6BWNCELwytIQYGCB5AfjAeVia~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=UzblA5J6mBeeXj4%2FHF8oYsoMSK8%3D</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>7780</t>
+          <t>3022</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>可不可以买房，看完你会有答案#房地产 #买房 #认知 #思维 #商业</t>
+          <t>他们国家的教材上写着这样一句话：“我们伟大的祖先迫使伟大的中国人修了伟大的长城#土耳其#欧洲杯#荷兰#哈士奇#萧大业</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7426286519893151013</t>
+          <t>https://www.douyin.com/video/7388394515586895155</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/fb971d5406904f1eb86e591e8bee9241~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=LwxDAGMip0xRBcJJuBu%2F80App2g%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ooaQiAAiPEU2meBgamARAyIG6i20BfPBCbGzPI~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=3Z5FTMPj68JcxQS6Rft9bXp%2F3sk%3D</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>5618</t>
+          <t>1882</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>有趣的灵魂万里挑一，会表达的人有多难得！#表达 #口才 #张琦 #聊天 #高情商表达</t>
+          <t>离别不仅仅是一种失去，更是一种成长和转变。致敬C罗，我以过客之名，祝你顺风顺水。 #欧洲杯#足球#葡萄牙#C罗#萧大业</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7425972428251106569</t>
+          <t>https://www.douyin.com/video/7388003174478515494</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/73b01b5437da49ae8d08f885284dc1ca~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=4Y6Atk%2BWyoT0loG4tEX5OBVV1qE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oU2HObghfAIPoWeECD9mCcBSdEACFAQQa3mQrz~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=EEAtplVkM4sFfdD9MDFPgTePIdo%3D</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>2342</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>一个人有领导力，想不成功都很难#领导力 #管理 #老板 #带团队 #管理者</t>
+          <t>它是一个既紧靠珠三角又紧靠长三角的地区，在加上这些丰厚的历史沉淀和底蕴，未来二十年必将加速发展机会多多#江西#国宝李渡</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7425904939039198479</t>
+          <t>https://www.douyin.com/video/7387733038492339507</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/69055ee4416b494ab8975ac88fd96c55~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=4gPYtWQdjFpiV8UrFsStmcIAJbo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/oMI9ACmAo4sfkZiGDAEqYhFCIAAC9gf6EgAAsB~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=uPoRNWCehYdHRZbjlqrW4FVuES8%3D</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1.2万</t>
+          <t>5336</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>人与人之间最大区别是什么#人生 #认知 #成功 #强者思维 #张琦</t>
+          <t>那里富有不张扬，每个人都看上去很随意，但绝不缺文明，每个人根据自已敀爱好生活，自由自在，无限畅快 #欧洲杯#荷兰#自行车#巨人#萧大业</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7425840460008148239</t>
+          <t>https://www.douyin.com/video/7387367563119971635</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/4ba2178a9217468384a18370bbbb5e1c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=lNetLJ2azxOTcEue23%2FlPyjbAyQ%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oMIBiQM6iTOwXgFBIPABwzZIUAIOvgEppE7zo~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=9XSnMpS61OtrXu8ug71QmJ7rc4g%3D</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1708</t>
+          <t>2316</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>未来颠覆微信的居然是这个#居安思危 #商业思维 #马化腾 #科技 #增长</t>
+          <t>事件的背后是教育的不公#李雪琴#教育#造假#萧大业#公平</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7425616287432297766</t>
+          <t>https://www.douyin.com/video/7386879411192220979</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/bf9cf75783fc46f7981997c64f4d08c9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=8t93q9u7bZ3z6ym8D9iPrIlvPTM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oA0eBFeGEIiO7MNB4duseBVuDC7A8Iv4LDPPQA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=pUgM%2F5i687I2siee8Q41cXNCpEU%3D</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>577</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>会说话的女人，运气不会差#会说话 #口才 #表达 #演讲 #发言</t>
+          <t>他被德国媒体誉为“德国现代足球教父”，有点像鬼谷子，有点像李云龙，所有团队领袖都应该和他学习，快来看看他的传奇…#朗尼克#欧洲杯#奥地利#萧大业#足球</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7425472605160836386</t>
+          <t>https://www.douyin.com/video/7386461335925673266</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/6d210ec2276a490f8aaef132aa6de5a5~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=R5Q%2FTubQ644qqPCs0M8ZO55kIUE%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/ok3DCBZInQAfdysIJoeYDeC0YAI8fEGkaIh2gL~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=WeTjWImUmbvCQYzyTQqYO6Qw7G8%3D</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.3万</t>
+          <t>1073</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>刀郎赵丽颖为何大家都力挺？#刀郎 #赵丽颖 #情绪 #商业思维 #共鸣共情</t>
+          <t>自古英雄出少年！来欣赏一个带着作业来踢欧洲杯的孩子的威武吧，他会违反德国的法律吗 #欧洲杯#西班牙#亚马尔#格鲁吉亚#萧大业</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7425270312670956835</t>
+          <t>https://www.douyin.com/video/7386272179232492827</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/8af108e5266142d19fb63f3aaaa47ecd~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=4zgH%2BYFx7et5xk%2FESlwChZDIHkk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/owAACt2CecmQfBLptMDU0IxFCgn9E6FgD9iAuB~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Xl1ujOGxA9wjFxC7faVFGEffXlY%3D</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>4901</t>
+          <t>1.6万</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>张琦你那么牛，为什么还出来卖课！#商业思维 #老板 #新媒体 #创业 #拓客</t>
+          <t>一生未见 一世想念，永远的黄家驹。永远年轻，永远热泪盈眶 #黄家驹#Beyond乐队#音乐#萧大业 #海阔天空</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7424892470929984783</t>
+          <t>https://www.douyin.com/video/7386226015594417417</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/860d00a11bdf4b098612b5953f2c176c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=u%2FaD7HefdIF5vcLU26EImnJmLrM%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-0813/oEeVICKR3DAuShA5ASFiA9mAEAygQC7gQ1fJCE~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=9%2B8u3AR56TsDfIa1zuPhCWIL%2BwU%3D</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2824</t>
+          <t>3010</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>收到感谢这样回，都夸你高情商#回话 #高情商 #高情商说话技巧 #口才 #感谢</t>
+          <t>《海阔天空》似乎永远都不会老，这首带着黄家驹信念、理想、精神的歌激励着一代又一代的人… #黄家驹#Beyond乐队#海阔天空#音乐#萧大业</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7424869276680572175</t>
+          <t>https://www.douyin.com/video/7385903483947355418</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/7e5c40b3de274ead8df211cbcdc781b8~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=PT8pmOrhA1YAxuB%2B31v56ROL4Tk%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/ooBPuefAjA1ZGFfQBf3IAXQgAIfLI2qunge8Xq~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=7tJnlc8yQpCf3%2FzuTKPGsjV3eEw%3D</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>8261</t>
+          <t>3841</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>你看到的世界是算法让你看到的世界#认知 #算法 #科技 #商业思维 #工具</t>
+          <t>足球史上的最大冷门 每个人都需要这样的童话来告诉自己，生活中的困难和挫折不可避免，但命运有时也可以掌握在自己手中，把握住，就会出现童话。#欧洲杯#足球#丹麦#德国#萧大业</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7424830736710094107</t>
+          <t>https://www.douyin.com/video/7385837914367790373</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/c694859a067443819a3d10508ad2fda8~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=GxZIhEd4wjKoZoY5%2FC190d4g1q4%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/oMgZ9OjNAAA7A2PdAIFEfxIDffOm5H4ECDIDfQ~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Lxl2%2FAcuJwnLv0mAK0czwOqLOZA%3D</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>6412</t>
+          <t>2079</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>听不懂人工智能+，你将再错过十年#人工智能+ #商业思维 #创业 #人工智能 #科技</t>
+          <t>远离这些人，你就离成功很近了 远离这些人，你离成功就很近了#人生#成长#萧大业#人际关系#职场</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7424521856415173914</t>
+          <t>https://www.douyin.com/video/7385437091724922162</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/b86c40b4fba64d52b59d981687b7f1a2~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=egODpKSpTgOv1Ys9WHI%2Fe%2FcokRU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/oEZAOEeIyAefzlwQeQQfsHA8AHIJLnHAGFDVr8~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=OAKe70Ynw3x%2FczqPSlkZpSeTckc%3D</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>3206</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>科幻照进现实！特斯拉发布会震撼来袭#特斯拉发布会 #马斯克 #无人驾驶 #科技 #商业思维</t>
+          <t>胡友平女士用生命证明了国人的上限：善良勇敢，以文明人的姿态，用身躯挡住了滴血的屠刀。 #胡友平#苏州#日本#孤勇者#萧大业</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7424368346927320347</t>
+          <t>https://www.douyin.com/video/7385138405333650725</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/b42e3e3520da4116bbf807efa49530b8~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=U%2FdOK1tAaIiIJLRBvBh6Ba3Zgvw%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-0813/okI6QACA2k6eA8GZ7LDUeSeceCaDPIAAIupIIg~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=rN88aBFmJuIcnl85JKvFYFlORWo%3D</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>905</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>如何回客户的话，一学就会超实用#口才 #客户 #回话 #表达 #提升口才</t>
+          <t>世界杯十八强出线战分组抽签揭晓，国足真的抽在死亡之组吗？#足球#世界杯#国足#中国队#萧大业</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7424354889133853987</t>
+          <t>https://www.douyin.com/video/7384771326810148134</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/6e9b45c2baf94d4a9899c13db669eae2~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=HYuaznm%2B8fN80%2BB5Sp8SiGfh7Jw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/owID3XZVfIAMCTMgQ8WcAIAAQe9qe7fZBDTA2N~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=hr5q5lE5pJwUiFlX0DjPyIOkA7I%3D</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>优秀管理的一半是由口才创造的#管理 #领导力 #口才演讲 #发言 #带团队</t>
+          <t>年龄不是倚老卖老的武器，更不是侵犯他人的护身符，我们敬重的是人而不是年纪 #北京地铁#北京大爷#地铁让座#性骚扰#萧大业</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7424103118746471730</t>
+          <t>https://www.douyin.com/video/7384412046932053286</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/c2f1cd80a79342dab0d80b4bbfeb0d87~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=KiqOh7O%2BYCMTQxGeEkLL23Zpg3o%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oYFO6aQMeAAGBcTBEperd7sCEc6fI7j7BNPAED~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=MdLnlyl%2BQNjqrPWwrs233SzYjOY%3D</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1502</t>
+          <t>3196</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>做19年商业教育，普通人也能改变！#商业思维 #创业 #新媒体 #商业 #企业</t>
+          <t>他们枪杀了他爷爷，烧了他家的祖屋，他从一个战火中放羊的少年成长为今天的顶级巨星 #欧洲杯#莫德里奇#克罗地亚#足球#萧大业</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7423971816726727962</t>
+          <t>https://www.douyin.com/video/7384031636385434889</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/ccdb8345203c4a31abc102fb909c0302~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=cBZtZSb1hqF3uQpkNF%2FMDZziIYE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oElzuhyqiAP0BeUcgEiLPWCBNfVtHaKiAAB95I~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=q%2FmeFlSOnr9dSQouC0UhSW0B1PI%3D</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>6539</t>
+          <t>754</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>最顶级的自律不靠约束，而是靠热爱#热爱 #自律 #人生 #认知 #创业</t>
+          <t>为什么三起事件都是那个品牌的咖啡店？从商业和管理看这个咖啡店打人事件 #manner#咖啡#打人#萧大业 #瑞幸</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7423786864986967305</t>
+          <t>https://www.douyin.com/video/7383608747534388506</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/3f3b4beb589340e4851cdd0725eb7d1e~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=viUa3fLx9RaX5Yr6YucPPNoWBsA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/ogR3ezArOBriA22ZAAIAt6ZvExIgsiEBADCCof~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=RGKmIzkXdIzpVM5tKU8Yf85rIHg%3D</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1771</t>
+          <t>1506</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>实体店生意不好，普通人该怎么办？#实体 #门店 #张琦 #拓客引流 #老板</t>
+          <t>一座有着辉煌历史的小城，诞生过中华名篇，见证过历史时刻#溆浦#湖南#屈原#端午#萧大业</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7423704750425787700</t>
+          <t>https://www.douyin.com/video/7383200089621171483</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/02a76372258e48e58b207f75f9d6aca8~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=KORkt4E8hGOf5Tx8rL1hNGUHVWg%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/osRBvAfcCdIBfZ9pAzgWExFEEkGX2m2WDSAmBR~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=z9iqC5cbsedU8Jnmb7udCidDQvw%3D</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>6167</t>
+          <t>2983</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>摆脱社恐自信表达，只需用我的方法#社恐 #表达 #发言 #提升口才 #语言</t>
+          <t>希望别人好，别人未必好，但你肯定好，因为你内心美好；见不得别人好，别人未必不好，但你肯定不好，因为你内心没有美好。#姜萍#高考#中专#数学#萧大业</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7423408456880622858</t>
+          <t>https://www.douyin.com/video/7382894223177092402</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/f7fffcdd6be44a8eac1e90a3679efb60~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=BsYeiFXic4SSDT7hWQaNtxDdn5Q%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oEHAZ5mI1cRDdBgTgdCzUfERFAA9dAdeNlAP7E~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=ayEDMjDRLpN8YpiSOUhYy9mxU6I%3D</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2084</t>
+          <t>5976</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>#A股 #资本市场 #商业思维 #谨慎 #认知</t>
+          <t>咖啡店店员打顾客事件底层原因 咖啡店店员打顾客事件有店员原因，顾客原因，Manner公司原因，但真正的原因是人和人之间缺乏底层的尊重#manner咖啡店 #冲突事件#尊重#萧大业</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7423410857549237542</t>
+          <t>https://www.douyin.com/video/7382809190705761563</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/0d6f9554349e4b82b3ef0cd35b92c624~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=YHFYFSW9KdIWNSvk3bTEbEvmvBo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oseTAgJE6CBLWuYQFg983eABPWMAeMOGGB7qID~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=DRE4rXB3copjlolBkVaFz01Q%2FcQ%3D</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>不会例会团队松散，一定是方法用错了#团队 #管理 #领导力 #张琦 #高管</t>
+          <t>英格兰一群亿万富翁再次反向演绎了什么是团队 #欧洲杯#足球#英格兰#丹麦#萧大业</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7423342315244211507</t>
+          <t>https://www.douyin.com/video/7382550168836525321</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/53ca88012cbe426299134aaed615d17d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=und%2B8YaPJjMY5kBBWBJ2IgKeHiQ%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oY9k0Az4gCBhhiIzROifABgDOF5IrwEle6B2Ay~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=vvBEzZPqSSZdrja5Jc8Tdh5AlG8%3D</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>973</t>
+          <t>1026</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>成年人尊严是钱给的，和张老师一起学商业#商业 #营销 #创业 #生意 #新媒体</t>
+          <t>读书是别人家孩子，打工是天花板，创业一出手就做出一家上市公司，全球最大母婴平台的创始人，一个心怀梦想的反复创业者的故事#王怀南#响午#宝宝树#谷歌#萧大业</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7423326159225572642</t>
+          <t>https://www.douyin.com/video/7382445989942103305</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/4628a463a1224f869e9d356c8573b771~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=L%2FCPGN8jWraKIZtmhN%2BWzt06Qfo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ocNn97wvmIC4ABA4bBcFaDdEQoDDgcABmgffyQ~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=yPov%2Fl1JnNqij%2Bg9TS5swkHHnTw%3D</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>8151</t>
+          <t>1304</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>为什么我们越长大越没有朋友​#朋友 #成年人 #认知 #长大 #个人成长</t>
+          <t>竞技体育并不只关乎输赢#欧洲杯#足球#克罗地亚#莫德里奇#萧大业</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7423062124500405514</t>
+          <t>https://www.douyin.com/video/7382196218601934143</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/3645153835604ad19a46b32090d16bc6~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=EEL%2B7HZaZsY99%2BHJVMRJAHFhRnc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/ow5oWADBzC10GlbiiAAWiAETAAayfOtgReIFBt~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=aFvwtEf4JSMyt7wej7m1NgFbXqM%3D</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>3.5万</t>
+          <t>925</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>中国不缺白领，缺有技术的蓝领#蓝领 #白领 #认知 #职业 #商业思维</t>
+          <t>欧洲杯激战正酣，蚂蚁集团和其他中国赞助商“来势汹汹”，赛场内外中国元素随处可见，让我们有点恍惚到底在看欧洲杯还是中超？这标志着中国企业真正出海开始做全球生意了#欧洲杯</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7423045153130056969</t>
+          <t>https://www.douyin.com/video/7382176463316946227</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/85476108e6ef4702aa4d42333ae01410~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=gvqW7%2F3qzJXLU5RE9F9Fqx6nsFw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ooGniP3PEuiQg9yAPSCwm5iQBPBIwLEAhIZXV~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=IgsTCvZqKvfxLYPDOvQhHU8TyOI%3D</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1575</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>大A新一轮财富机会，普通人更适合我的方法#财富思维 #商业思维 #创业 #赚钱 #认知</t>
+          <t>从里斯本少年到足坛天王，从19岁到39岁，当他职业生涯首秀的时候，今天早上帮助葡萄牙队绝杀捷克的小孔塞桑还没出生#欧洲杯#足球#C罗#葡萄牙#萧大业</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7422562869859962121</t>
+          <t>https://www.douyin.com/video/7381828855855648027</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/74a6f65d034045db88fd4f42256f3879~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=y6eq4J39ywdzVEsMgS%2FJ%2BfxdrMM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oABBAhdOAiNMMAMBEziBzkfCIII0gLCGACx4Ge~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=UPRJJPWo65JLys8Bkyf5mwxXh%2BA%3D</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1.5万</t>
+          <t>2844</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>从流浪到百亿身家，90后创始人野心多大#霸王茶姬 #张俊杰 #商业思维 #创始人 #野心</t>
+          <t>没有过不去的坎，只有过不去的坎特。#欧洲杯#足球#坎特#法国#萧大业</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7422557837764627747</t>
+          <t>https://www.douyin.com/video/7381422224139439386</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/fe63cdcf430a4f41a597b57019681b62~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=X3iDQeohbNaiPxIxvs1Ocq3h6g0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o89BRFAHBUWfV4cLHmyxAeCwZFEAIgasDBFsEg~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=LFlKn2lh5M%2Fx6%2B6ciS8v%2FH9%2BL1Y%3D</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>4617</t>
+          <t>533</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>00后比我们想象的更加爱国#00后 #爱国 #全红婵 #潘展乐 #黑神话悟空</t>
+          <t>生命不屈，热爱不死，这是凡人与命运抗争的最强音#欧洲杯#足球#丹麦童话#埃里克森#萧大业</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7422310917209214260</t>
+          <t>https://www.douyin.com/video/7381059080372194569</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/0cfe5b4fbd5d457395e8bb63f6a28975~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=CcvpHuW8JSK5NBrFEjAkb6Yas1Y%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/okymuIMZZFyv7zQiljJAgpTRPF5KivAEBBziI~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=4IaT4vxgBTE6JFyx6kz6aSuUOM4%3D</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>如何提升口才，成为超级表达者#提升口才 #表达 #演讲 #发言 #高情商</t>
+          <t>相信年轻人，放权让位于年轻人吧#欧洲杯#足球#莫德里奇#亚马尔#萧大业</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7422294379487923491</t>
+          <t>https://www.douyin.com/video/7380756065987661065</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/c9cf7c98261e455bb387deedcc744252~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=fvtKr47t45grBJfSN%2F6y8tejc3c%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/oUptezCXNd7iAtP0AAItS9sf8CpgjiEBBiCBCt~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=u2wXf1osTTyZslbCj4tNug%2BR%2FFs%3D</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>595</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>刀郎再火，新媒体时代普通人也能被看到！#刀郎 #新媒体时代 #个人ip #引流拓客 #商业思维</t>
+          <t>克罗斯在自己如日中天的状态下果断退役，这需要定力，值得钦佩#欧洲杯#足球#德国#克罗斯#萧大业</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7421948520803962152</t>
+          <t>https://www.douyin.com/video/7380517029461118218</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/d26da9ab6da347fa8d26392d6ca879eb~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=mG0CtQsdym80oqmLESySfDuAB3Q%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o8fosvYAABBEELgWz2DZCmISbEE0T393NFeA1i~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=RAXuF8Ewv8Ts%2Bos98eUARuRI2vM%3D</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>4805</t>
+          <t>612</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>国庆可以给孩子，上一堂爱国课#爱国 #国庆 #孩子教育 #认知 #家庭教育</t>
+          <t>德国5:1大胜苏格兰，讲讲德国战车的往事 #欧洲杯#世界杯#足球#德国#萧大业</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7421940235107306790</t>
+          <t>https://www.douyin.com/video/7380338403813985563</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/b270c93a532949eeb5667c4c72bab91d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=O1yLEt2EcJC43svtA5cLdmWVM2M%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/oEeAtAfEqgbWm0qCKQCq9tA6A3IjF5AAD8DDdY~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=J3LgBwGKUi7VT7XOu7Cdrd17czc%3D</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>5951</t>
+          <t>1.2万</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>怎么看大A的暴涨，普通人能入局吗？#A股 #资本市场 #房价 #财富思维 #商业思维</t>
+          <t>三星堆十大未解之谜 如果这些迷团都被解开，或许我们的历史真的要被改变，我们的三观都要颠覆重建了。#三星堆#考古#成都#四川#萧大业</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7421558249478016307</t>
+          <t>https://www.douyin.com/video/7379581541569088805</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/0eb78656f42f4a1e90271edd449b4480~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=qVlXR9UsawvRpJnCeHGd9A8ejyM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/o07lpACcMCAuWiIzBNifACgFZiVAUsE4eAB5At~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=yqe4dPCNMYAzjVB398EVQJy3rTY%3D</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>3021</t>
+          <t>1845</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>吾辈生在盛世，必将自强#国庆 #爱国 #张琦 #自强 #认知</t>
+          <t>我们足球不行深层次的原因研究#足球#国足#世界杯#体育#萧大业</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7421498746166332723</t>
+          <t>https://www.douyin.com/video/7379178671594048819</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/5ec43c4f1589422dabb0bab0a8e91ef0~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=CEfo3qUidZ9rDMn7ZEs978EB5f0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oAfwEeRbGBLML1HBFQINDQQf0CEg5IEAXB7RbA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=HYwAbxapoePmAtrZQXOspDGpXvg%3D</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>7232</t>
+          <t>3230</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>无论男女婚姻都是你的第二次投胎#婚姻 #认知 #女性成长 #家庭 #张琦</t>
+          <t>没有什么比生命更重要 没有什么比生命更重要#高考#生命#人生#生命教育#萧大业</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7421176040648625448</t>
+          <t>https://www.douyin.com/video/7378725442271907110</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/c4d82e6a00694c64a83417160a0568c3~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=WLlVDL%2F1ZqXS3Jk4ZoCXPWw864o%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oUszfMaLfACxC3DbB76MeTQAWF74PzELcEEIBQ~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=97p1CzyQx5mGvTHNkVJZQ9zujaA%3D</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>5451</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>如何克服你公众发言紧张#发言 #上台 #表达 #提升口才 #说话</t>
+          <t>端午快乐，端午安康都是一种祝愿，你爱说啥就说啥，不要用一种说法批另一种说法，没那么多禁忌，开心快乐最重要 #端午#粽子#龙舟#屈原#萧大业</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7420786319258914088</t>
+          <t>https://www.douyin.com/video/7378481948974484773</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/82004de061834a87a8341df1ef546278~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=blyPLdjbtVTjKi1PF8qhPPSzFLo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oAeGLCeE0Bbj3zKLICSIIeCHERy2MQAZwBh7Av~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=J0uzZw6frckea1UkKaACEi3hOUc%3D</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1.4万</t>
+          <t>7675</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>A股全线飘红，普通人还能进吗？#A股 #资本市场 #商业思维 #认知 #张琦</t>
+          <t>为了信心与信仰，为了忠诚与爱，为了捍卫自由… #二战#诺曼底登陆#军事#管理 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7420718188326948096</t>
+          <t>https://www.douyin.com/video/7378104637343157555</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/c37b85cc2ea843cc85372d287089cd3e~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=V1Qj3yhDnMY06FknP2cCYHbs3Yw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ocyqECNeFDAxSWEzhEFrA9mBxARgjBZZIofPkE~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=tRs2iP%2FzIqm6yM%2FzX9tTx3nQ0Vw%3D</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>9617</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>祝大家国庆快乐奔赴美好生活#国庆 #张琦 #祝福 #商业思维 #创业</t>
+          <t>打仗有时候打的是细节，有时候细节就决定了成败，来看看1944年的急救包 #二战#急救包#诺曼底登陆#萧大业#盟军</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7420436572228668698</t>
+          <t>https://www.douyin.com/video/7377689563151486246</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/178185b4fea646689e4f1c4f601392f5~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=OH0xeCT1O8TWOoKjTo5TXtaneKE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/okAEZjkyAB0MGCSiiji1giIieAzpCUwfAEBzuW~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=W6J4no6vmBP5eX8e2fRQj4x6t8w%3D</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>4.5万</t>
+          <t>1.3万</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>华为硬刚苹果，三折叠眼前一亮#华为 #创新 #商业思维 #创业 #中国品牌</t>
+          <t>罗斯福？丘吉尔？斯DL？还是另有其人？各抒己见，来谈谈你的看法吧 #二战#罗斯福#丘吉尔#泰勒#萧大业</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7420385343075126555</t>
+          <t>https://www.douyin.com/video/7377372853336804658</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/2e0d0e211b9b46aba180d73e6000c0a3~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=IM0bojAU3VbElgUT62hPFdWmSR0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/o8ZhvAAyYEImBBgUrCiHxiBAIPsjAiAgG40vA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Hnk4Npl7N4F3xxTvT%2FSogphafow%3D</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>1.2万</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>不会分钱的老板怎么做的大#企业管理 #老板 #薪酬设计 #团队 #领导力</t>
+          <t>纪念诺曼底登陆胜利八十周年！本视频精彩重现史上最庞大和最牛的计划… #诺曼底登陆#二战#艾森豪威尔#隆美尔#萧大业</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7420029593945378098</t>
+          <t>https://www.douyin.com/video/7376962538895854885</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/700217f3163a4c76b838c7bc5a760e9c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=5%2BITVRY1SYkkiU9P4sBm7uI57Yg%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/owPcYi8IAgAgiRGRtmPGRZIPU6CmENOQ2BmAX~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=x5V74rDuuEyzMpZ9ekodI0aGEvY%3D</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>6486</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>这是我见过最愚蠢的管理方式#企业管理 #领导力 #团队管理 #管理思维</t>
+          <t>举头三尺有神明，一笔笔都给你记着呢#白嫖#诚信#萧大业#管理 #人生</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7419981055458905381</t>
+          <t>https://www.douyin.com/video/7376594074133974298</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/3319f971e8414c2391f5f505215ed9f9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=53D%2Fr6n3ufT3WBarg7aDGanod3I%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/osQ91epI0M7RDQMIeCLMA2KGAaE8yBvpedvBAD~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=L7s5j%2FJdmPhsHYDJ%2BsVnvzkbGx8%3D</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2579</t>
+          <t>6346</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>微信和抖音为什么那么值钱？#微信 #商业思维 #值钱 #企业 #创业</t>
+          <t>换城市就是换能量，换城市就是换机会，换城市就是换命运。 #人生 #管理 #命运#萧大业#成长</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7419701292903255336</t>
+          <t>https://www.douyin.com/video/7376262379874635017</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/56f3921fedcb48d089f1ba1008bf1e7f~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=YeUvHbT0LCBY3G%2Ftxr2zimUQBA0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/okZ2h25Qey7HRAphfCWMAfVMAoEgUBLy83uBdW~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=uYbqjd0xnTqhvE%2F6hXNyNdTN%2BWc%3D</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>2.2万</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024你敢不敢改变自己？#口才 #女性成长表达 #高情商 #发言 #表达</t>
+          <t>他玩出了享誉世界的名声，玩出了和谐美满的婚姻，玩出了无人能敌的人生精彩#赵元任#天才#民国#大师#萧大业</t>
         </is>
       </c>
     </row>
